--- a/coefficienti.xlsx
+++ b/coefficienti.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6040ba4873ab194c/00_TOLS/GitHub/Concio_I/util/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.gaudioso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC10483F419E5C685BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7163D064-6475-437D-AF06-7660D0501A1A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ADD440-50F3-4D2B-884F-FEAD3F9CA400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29865" yWindow="2385" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SLU" sheetId="1" r:id="rId1"/>
-    <sheet name="SLE" sheetId="2" r:id="rId2"/>
+    <sheet name="gamma" sheetId="1" r:id="rId1"/>
+    <sheet name="psi" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -522,17 +522,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.05859375" customWidth="1"/>
-    <col min="8" max="8" width="33.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -558,7 +562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -584,7 +588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -610,7 +614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -636,7 +640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -662,7 +666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -688,7 +692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -714,7 +718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -740,7 +744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -775,17 +779,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DD48FB-B6DC-4773-AC23-7D7445BE01C0}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.05859375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.64453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
@@ -802,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -819,7 +823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -836,7 +840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -853,7 +857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -870,7 +874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -887,7 +891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -904,7 +908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
@@ -919,7 +923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -936,7 +940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
@@ -953,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
@@ -970,7 +974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -987,7 +991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>34</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>

--- a/coefficienti.xlsx
+++ b/coefficienti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.gaudioso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ADD440-50F3-4D2B-884F-FEAD3F9CA400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE2A58E-200C-47C3-8244-EAE24AF8B75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29865" yWindow="2385" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29865" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gamma" sheetId="1" r:id="rId1"/>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DD48FB-B6DC-4773-AC23-7D7445BE01C0}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
